--- a/snowpyt/data_example/20161216_snowpit.xlsx
+++ b/snowpyt/data_example/20161216_snowpit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t xml:space="preserve">Snowpit form for Snowpyt package</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">East [deg]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">º</t>
   </si>
   <si>
     <t xml:space="preserve">North [deg]</t>
@@ -508,28 +505,31 @@
   </sheetPr>
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="1.48469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="1.48469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="1.75510204081633"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="1.35204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="1.35204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="1.62244897959184"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,51 +775,47 @@
       <c r="B36" s="10" t="n">
         <v>7.52568333</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="10" t="n">
         <v>60.5943166</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="10" t="n">
         <v>1214</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="10" t="n">
         <v>-8</v>
@@ -827,7 +823,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -840,71 +836,71 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S43" s="7"/>
     </row>
     <row r="44" s="14" customFormat="true" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="F44" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="G44" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="H44" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="I44" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="J44" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M44" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="Q44" s="13"/>
       <c r="R44" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,7 +919,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J45" s="16" t="str">
         <f aca="false">IF(I45="feast",1,IF(I45="4 finger",2,IF(I45="3 finger",3,IF(I45="2 finger",4,IF(I45="1 finger",5,IF(I45="pencil",6,IF(I45="knife",7,IF(I45="nan","NaN","NaN"))))))))</f>
@@ -963,14 +959,14 @@
         <v>2</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J46" s="16" t="str">
         <f aca="false">IF(I46="feast",1,IF(I46="4 finger",2,IF(I46="3 finger",3,IF(I46="2 finger",4,IF(I46="1 finger",5,IF(I46="pencil",6,IF(I46="knife",7,IF(I46="nan","NaN","NaN"))))))))</f>
@@ -1013,7 +1009,7 @@
         <v>12</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="15" t="n">
@@ -1023,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J47" s="16" t="str">
         <f aca="false">IF(I47="feast",1,IF(I47="4 finger",2,IF(I47="3 finger",3,IF(I47="2 finger",4,IF(I47="1 finger",5,IF(I47="pencil",6,IF(I47="knife",7,IF(I47="nan","NaN","NaN"))))))))</f>
@@ -1074,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J48" s="16" t="str">
         <f aca="false">IF(I48="feast",1,IF(I48="4 finger",2,IF(I48="3 finger",3,IF(I48="2 finger",4,IF(I48="1 finger",5,IF(I48="pencil",6,IF(I48="knife",7,IF(I48="nan","NaN","NaN"))))))))</f>
@@ -1125,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J49" s="16" t="str">
         <f aca="false">IF(I49="feast",1,IF(I49="4 finger",2,IF(I49="3 finger",3,IF(I49="2 finger",4,IF(I49="1 finger",5,IF(I49="pencil",6,IF(I49="knife",7,IF(I49="nan","NaN","NaN"))))))))</f>
@@ -1170,7 +1166,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J50" s="16" t="str">
         <f aca="false">IF(I50="feast",1,IF(I50="4 finger",2,IF(I50="3 finger",3,IF(I50="2 finger",4,IF(I50="1 finger",5,IF(I50="pencil",6,IF(I50="knife",7,IF(I50="nan","NaN","NaN"))))))))</f>
@@ -1223,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J51" s="16" t="str">
         <f aca="false">IF(I51="feast",1,IF(I51="4 finger",2,IF(I51="3 finger",3,IF(I51="2 finger",4,IF(I51="1 finger",5,IF(I51="pencil",6,IF(I51="knife",7,IF(I51="nan","NaN","NaN"))))))))</f>
@@ -1263,7 +1259,7 @@
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J52" s="16" t="str">
         <f aca="false">IF(I52="feast",1,IF(I52="4 finger",2,IF(I52="3 finger",3,IF(I52="2 finger",4,IF(I52="1 finger",5,IF(I52="pencil",6,IF(I52="knife",7,IF(I52="nan","NaN","NaN"))))))))</f>
@@ -1311,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J53" s="16" t="str">
         <f aca="false">IF(I53="feast",1,IF(I53="4 finger",2,IF(I53="3 finger",3,IF(I53="2 finger",4,IF(I53="1 finger",5,IF(I53="pencil",6,IF(I53="knife",7,IF(I53="nan","NaN","NaN"))))))))</f>
@@ -1347,7 +1343,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J54" s="16" t="str">
         <f aca="false">IF(I54="feast",1,IF(I54="4 finger",2,IF(I54="3 finger",3,IF(I54="2 finger",4,IF(I54="1 finger",5,IF(I54="pencil",6,IF(I54="knife",7,IF(I54="nan","NaN","NaN"))))))))</f>
@@ -1391,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J55" s="16" t="str">
         <f aca="false">IF(I55="feast",1,IF(I55="4 finger",2,IF(I55="3 finger",3,IF(I55="2 finger",4,IF(I55="1 finger",5,IF(I55="pencil",6,IF(I55="knife",7,IF(I55="nan","NaN","NaN"))))))))</f>
@@ -1423,7 +1419,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J56" s="16" t="str">
         <f aca="false">IF(I56="feast",1,IF(I56="4 finger",2,IF(I56="3 finger",3,IF(I56="2 finger",4,IF(I56="1 finger",5,IF(I56="pencil",6,IF(I56="knife",7,IF(I56="nan","NaN","NaN"))))))))</f>
@@ -1463,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J57" s="16" t="str">
         <f aca="false">IF(I57="feast",1,IF(I57="4 finger",2,IF(I57="3 finger",3,IF(I57="2 finger",4,IF(I57="1 finger",5,IF(I57="pencil",6,IF(I57="knife",7,IF(I57="nan","NaN","NaN"))))))))</f>
@@ -1495,7 +1491,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J58" s="16" t="str">
         <f aca="false">IF(I58="feast",1,IF(I58="4 finger",2,IF(I58="3 finger",3,IF(I58="2 finger",4,IF(I58="1 finger",5,IF(I58="pencil",6,IF(I58="knife",7,IF(I58="nan","NaN","NaN"))))))))</f>
@@ -1535,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J59" s="16" t="str">
         <f aca="false">IF(I59="feast",1,IF(I59="4 finger",2,IF(I59="3 finger",3,IF(I59="2 finger",4,IF(I59="1 finger",5,IF(I59="pencil",6,IF(I59="knife",7,IF(I59="nan","NaN","NaN"))))))))</f>
@@ -1561,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J60" s="16" t="str">
         <f aca="false">IF(I60="feast",1,IF(I60="4 finger",2,IF(I60="3 finger",3,IF(I60="2 finger",4,IF(I60="1 finger",5,IF(I60="pencil",6,IF(I60="knife",7,IF(I60="nan","NaN","NaN"))))))))</f>
@@ -1592,7 +1588,7 @@
         <v>0.5</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J61" s="16" t="str">
         <f aca="false">IF(I61="feast",1,IF(I61="4 finger",2,IF(I61="3 finger",3,IF(I61="2 finger",4,IF(I61="1 finger",5,IF(I61="pencil",6,IF(I61="knife",7,IF(I61="nan","NaN","NaN"))))))))</f>
@@ -1619,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J62" s="16" t="str">
         <f aca="false">IF(I62="feast",1,IF(I62="4 finger",2,IF(I62="3 finger",3,IF(I62="2 finger",4,IF(I62="1 finger",5,IF(I62="pencil",6,IF(I62="knife",7,IF(I62="nan","NaN","NaN"))))))))</f>
@@ -1650,7 +1646,7 @@
         <v>0.5</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J63" s="16" t="str">
         <f aca="false">IF(I63="feast",1,IF(I63="4 finger",2,IF(I63="3 finger",3,IF(I63="2 finger",4,IF(I63="1 finger",5,IF(I63="pencil",6,IF(I63="knife",7,IF(I63="nan","NaN","NaN"))))))))</f>
@@ -1668,7 +1664,7 @@
         <v>27</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
@@ -1679,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J64" s="16" t="str">
         <f aca="false">IF(I64="feast",1,IF(I64="4 finger",2,IF(I64="3 finger",3,IF(I64="2 finger",4,IF(I64="1 finger",5,IF(I64="pencil",6,IF(I64="knife",7,IF(I64="nan","NaN","NaN"))))))))</f>
@@ -1697,7 +1693,7 @@
         <v>38</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
@@ -1708,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J65" s="16" t="str">
         <f aca="false">IF(I65="feast",1,IF(I65="4 finger",2,IF(I65="3 finger",3,IF(I65="2 finger",4,IF(I65="1 finger",5,IF(I65="pencil",6,IF(I65="knife",7,IF(I65="nan","NaN","NaN"))))))))</f>
@@ -1733,7 +1729,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J66" s="16" t="str">
         <f aca="false">IF(I66="feast",1,IF(I66="4 finger",2,IF(I66="3 finger",3,IF(I66="2 finger",4,IF(I66="1 finger",5,IF(I66="pencil",6,IF(I66="knife",7,IF(I66="nan","NaN","NaN"))))))))</f>

--- a/snowpyt/data_example/20161216_snowpit.xlsx
+++ b/snowpyt/data_example/20161216_snowpit.xlsx
@@ -1,27 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tintino/github/snowpyt/snowpyt/data_example/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="993"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -30,244 +20,242 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
-  <si>
-    <t>Snowpit form for Snowpyt package</t>
-  </si>
-  <si>
-    <t>Method:</t>
-  </si>
-  <si>
-    <t>1. Input values in green. If no value, leave cell empty</t>
-  </si>
-  <si>
-    <t>2. make sure spelling of snowflakes is correct, and hardness code is computed</t>
-  </si>
-  <si>
-    <t>3. save as csv file with tab delimiting fields</t>
-  </si>
-  <si>
-    <t>4. ready to import with Snowpyt package!</t>
-  </si>
-  <si>
-    <t>Supported snowflake names</t>
-  </si>
-  <si>
-    <t>Hardness coding</t>
-  </si>
-  <si>
-    <t>chain of depth hoar</t>
-  </si>
-  <si>
-    <t>feast</t>
-  </si>
-  <si>
-    <t>depth hoar</t>
-  </si>
-  <si>
-    <t>4 finger</t>
-  </si>
-  <si>
-    <t>faceted</t>
-  </si>
-  <si>
-    <t>3 finger</t>
-  </si>
-  <si>
-    <t>faceted rounded</t>
-  </si>
-  <si>
-    <t>2 finger</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>1 finger</t>
-  </si>
-  <si>
-    <t>melt refreeze</t>
-  </si>
-  <si>
-    <t>pencil</t>
-  </si>
-  <si>
-    <t>partly decomposed</t>
-  </si>
-  <si>
-    <t>knife</t>
-  </si>
-  <si>
-    <t>recent snow</t>
-  </si>
-  <si>
-    <t>rounded</t>
-  </si>
-  <si>
-    <t>rounded faceted</t>
-  </si>
-  <si>
-    <t>wind broken</t>
-  </si>
-  <si>
-    <t>wind packed</t>
-  </si>
-  <si>
-    <t>clustered rounded</t>
-  </si>
-  <si>
-    <t>dendrites</t>
-  </si>
-  <si>
-    <t>ice layer</t>
-  </si>
-  <si>
-    <t>add it!!!!!</t>
-  </si>
-  <si>
-    <t>slush</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>Snowpit Name</t>
-  </si>
-  <si>
-    <t>Date [YYYY-mm-dd]</t>
-  </si>
-  <si>
-    <t>Time [24hr]</t>
-  </si>
-  <si>
-    <t>Observer</t>
-  </si>
-  <si>
-    <t>Simon F, Sven D, Thomas S.</t>
-  </si>
-  <si>
-    <t>General location</t>
-  </si>
-  <si>
-    <t>Finse Research Station</t>
-  </si>
-  <si>
-    <t>East [deg]</t>
-  </si>
-  <si>
-    <t>North [deg]</t>
-  </si>
-  <si>
-    <t>Elevation [m]</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Weather conditions</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+  <si>
+    <t xml:space="preserve">Snowpit form for Snowpyt package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Input values in green. If no value, leave cell empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. make sure spelling of snowflakes is correct, and hardness code is computed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. save as csv file with tab delimiting fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. ready to import with Snowpyt package!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supported snowflake names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardness coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chain of depth hoar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depth hoar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 finger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faceted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 finger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faceted rounded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 finger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 finger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melt refreeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pencil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partly decomposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rounded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rounded faceted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind broken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind packed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clustered rounded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dendrites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add it!!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowpit Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date [YYYY-mm-dd]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time [24hr]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon F, Sven D, Thomas S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finse Research Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East [deg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North [deg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevation [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weather conditions</t>
   </si>
   <si>
     <t xml:space="preserve">Sunny, sunrise. </t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Snowpit close to previous one. Thomas took many pictures, backlit ones. Rain and above freezing temperature the previous day. Liquide water at the bottom</t>
-  </si>
-  <si>
-    <t>Air temperature [degC]</t>
-  </si>
-  <si>
-    <t>Stratigraphy</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Type 1</t>
-  </si>
-  <si>
-    <t>Type 2</t>
-  </si>
-  <si>
-    <t>Type 3</t>
-  </si>
-  <si>
-    <t>Hardness</t>
-  </si>
-  <si>
-    <t>Hardness code</t>
-  </si>
-  <si>
-    <t>Naaa</t>
-  </si>
-  <si>
-    <t>rounded polycrystals</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>hoar frost</t>
-  </si>
-  <si>
-    <t>layer ID</t>
-  </si>
-  <si>
-    <t>ID sample</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>g/cm3</t>
-  </si>
-  <si>
-    <t>Layer top</t>
-  </si>
-  <si>
-    <t>Layer bottom</t>
-  </si>
-  <si>
-    <t>Diameter min</t>
-  </si>
-  <si>
-    <t>Diameter max</t>
-  </si>
-  <si>
-    <t>Density depth</t>
-  </si>
-  <si>
-    <t>Temp depth</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>Sample depth</t>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowpit close to previous one. Thomas took many pictures, backlit ones. Rain and above freezing temperature the previous day. Liquide water at the bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air temperature [degC]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stratigraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">layer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardness code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g/cm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rounded polycrystals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoar frost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -275,21 +263,36 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -323,58 +326,124 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -433,331 +502,65 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R63" activeCellId="0" sqref="R63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" customWidth="1"/>
-    <col min="14" max="14" width="2.1640625" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="1.69387755102041"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="2.28571428571429"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.31632653061224"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -765,190 +568,190 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="8" t="n">
         <v>42720</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -956,7 +759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
@@ -964,36 +767,36 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="10">
-        <v>7.5256833299999997</v>
+      <c r="B36" s="10" t="n">
+        <v>7.52568333</v>
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="10">
-        <v>60.594316599999999</v>
+      <c r="B37" s="10" t="n">
+        <v>60.5943166</v>
       </c>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="10" t="n">
         <v>1214</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
@@ -1001,7 +804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
         <v>46</v>
       </c>
@@ -1009,15 +812,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="10" t="n">
         <v>-8</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>49</v>
       </c>
@@ -1046,103 +849,103 @@
       </c>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" s="14" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M44" s="12" t="s">
         <v>50</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q44" s="13"/>
       <c r="R44" s="12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q45" s="7"/>
       <c r="R45" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A46" s="15">
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="15"/>
@@ -1154,143 +957,143 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f t="shared" ref="J46:J67" si="0">IF(I46="feast",1,IF(I46="4 finger",2,IF(I46="3 finger",3,IF(I46="2 finger",4,IF(I46="1 finger",5,IF(I46="pencil",6,IF(I46="knife",7,IF(I46="nan","NaN","NaN"))))))))</f>
+        <f aca="false">IF(I46="feast",1,IF(I46="4 finger",2,IF(I46="3 finger",3,IF(I46="2 finger",4,IF(I46="1 finger",5,IF(I46="pencil",6,IF(I46="knife",7,IF(I46="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K46" s="7"/>
-      <c r="L46" s="9">
+      <c r="L46" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M46" s="9">
-        <f>161.4-143</f>
-        <v>18.400000000000006</v>
+      <c r="M46" s="9" t="n">
+        <f aca="false">161.4-143</f>
+        <v>18.4</v>
       </c>
       <c r="N46" s="16"/>
-      <c r="O46" s="10">
+      <c r="O46" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="P46" s="10">
+      <c r="P46" s="10" t="n">
         <v>-8</v>
       </c>
       <c r="Q46" s="7"/>
-      <c r="R46" s="9">
+      <c r="R46" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="S46" s="9">
+      <c r="S46" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A47" s="15">
+    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I47="feast",1,IF(I47="4 finger",2,IF(I47="3 finger",3,IF(I47="2 finger",4,IF(I47="1 finger",5,IF(I47="pencil",6,IF(I47="knife",7,IF(I47="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K47" s="7"/>
-      <c r="L47" s="10">
+      <c r="L47" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="M47" s="10">
-        <f>181.1-143</f>
-        <v>38.099999999999994</v>
+      <c r="M47" s="10" t="n">
+        <f aca="false">181.1-143</f>
+        <v>38.1</v>
       </c>
       <c r="N47" s="16"/>
-      <c r="O47" s="9">
+      <c r="O47" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="P47" s="9">
-        <v>-8.6999999999999993</v>
+      <c r="P47" s="9" t="n">
+        <v>-8.7</v>
       </c>
       <c r="Q47" s="7"/>
-      <c r="R47" s="10">
+      <c r="R47" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="S47" s="10">
+      <c r="S47" s="10" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A48" s="15">
+    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="15" t="n">
         <v>6</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F48" s="15"/>
-      <c r="G48" s="15">
+      <c r="G48" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="15" t="n">
         <v>1</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I48="feast",1,IF(I48="4 finger",2,IF(I48="3 finger",3,IF(I48="2 finger",4,IF(I48="1 finger",5,IF(I48="pencil",6,IF(I48="knife",7,IF(I48="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K48" s="7"/>
-      <c r="L48" s="10">
+      <c r="L48" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="M48" s="10">
-        <f>181-143</f>
+      <c r="M48" s="10" t="n">
+        <f aca="false">181-143</f>
         <v>38</v>
       </c>
       <c r="N48" s="16"/>
-      <c r="O48" s="10">
+      <c r="O48" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="P48" s="10">
+      <c r="P48" s="10" t="n">
         <v>-3</v>
       </c>
       <c r="Q48" s="7"/>
-      <c r="R48" s="9">
+      <c r="R48" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="S48" s="9">
+      <c r="S48" s="9" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A49" s="15">
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="15" t="n">
         <v>8.5</v>
       </c>
       <c r="D49" s="15" t="s">
@@ -1298,50 +1101,50 @@
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="15">
+      <c r="G49" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="15" t="n">
         <v>4</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I49="feast",1,IF(I49="4 finger",2,IF(I49="3 finger",3,IF(I49="2 finger",4,IF(I49="1 finger",5,IF(I49="pencil",6,IF(I49="knife",7,IF(I49="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K49" s="7"/>
-      <c r="L49" s="10">
+      <c r="L49" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="M49" s="10">
-        <f>185.4-143</f>
-        <v>42.400000000000006</v>
+      <c r="M49" s="10" t="n">
+        <f aca="false">185.4-143</f>
+        <v>42.4</v>
       </c>
       <c r="N49" s="16"/>
-      <c r="O49" s="10">
+      <c r="O49" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="P49" s="10">
+      <c r="P49" s="10" t="n">
         <v>-2</v>
       </c>
       <c r="Q49" s="7"/>
-      <c r="R49" s="10">
+      <c r="R49" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="S49" s="10">
+      <c r="S49" s="10" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A50" s="15">
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="15" t="n">
         <v>8.5</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="15" t="n">
         <v>10</v>
       </c>
       <c r="D50" s="15" t="s">
@@ -1349,47 +1152,47 @@
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="15">
+      <c r="G50" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="15" t="n">
         <v>1</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I50="feast",1,IF(I50="4 finger",2,IF(I50="3 finger",3,IF(I50="2 finger",4,IF(I50="1 finger",5,IF(I50="pencil",6,IF(I50="knife",7,IF(I50="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K50" s="7"/>
-      <c r="L50" s="10">
+      <c r="L50" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="M50" s="10">
-        <f>181.8-143</f>
-        <v>38.800000000000011</v>
+      <c r="M50" s="10" t="n">
+        <f aca="false">181.8-143</f>
+        <v>38.8</v>
       </c>
       <c r="N50" s="16"/>
-      <c r="O50" s="10">
+      <c r="O50" s="10" t="n">
         <v>11.5</v>
       </c>
-      <c r="P50" s="10">
+      <c r="P50" s="10" t="n">
         <v>-1.2</v>
       </c>
       <c r="Q50" s="7"/>
-      <c r="R50" s="9">
+      <c r="R50" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="S50" s="9">
+      <c r="S50" s="9" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A51" s="15">
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="15" t="n">
         <v>10</v>
       </c>
       <c r="C51" s="15"/>
@@ -1401,43 +1204,43 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I51="feast",1,IF(I51="4 finger",2,IF(I51="3 finger",3,IF(I51="2 finger",4,IF(I51="1 finger",5,IF(I51="pencil",6,IF(I51="knife",7,IF(I51="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K51" s="7"/>
-      <c r="L51" s="10">
+      <c r="L51" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="M51" s="10">
-        <f>181.3-143</f>
-        <v>38.300000000000011</v>
+      <c r="M51" s="10" t="n">
+        <f aca="false">181.3-143</f>
+        <v>38.3</v>
       </c>
       <c r="N51" s="16"/>
-      <c r="O51" s="10">
+      <c r="O51" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="P51" s="10">
+      <c r="P51" s="10" t="n">
         <v>-0.9</v>
       </c>
       <c r="Q51" s="7"/>
-      <c r="R51" s="10">
+      <c r="R51" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="S51" s="10">
+      <c r="S51" s="10" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A52" s="15">
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="15" t="n">
         <v>11</v>
       </c>
       <c r="D52" s="15" t="s">
@@ -1447,42 +1250,42 @@
         <v>24</v>
       </c>
       <c r="F52" s="15"/>
-      <c r="G52" s="15">
+      <c r="G52" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="15" t="n">
         <v>1</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I52="feast",1,IF(I52="4 finger",2,IF(I52="3 finger",3,IF(I52="2 finger",4,IF(I52="1 finger",5,IF(I52="pencil",6,IF(I52="knife",7,IF(I52="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="16"/>
-      <c r="O52" s="10">
+      <c r="O52" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="P52" s="10">
+      <c r="P52" s="10" t="n">
         <v>-0.7</v>
       </c>
       <c r="Q52" s="7"/>
-      <c r="R52" s="9">
+      <c r="R52" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="S52" s="9">
+      <c r="S52" s="9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A53" s="15">
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="15" t="n">
         <v>11</v>
       </c>
       <c r="C53" s="15"/>
@@ -1494,38 +1297,38 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I53="feast",1,IF(I53="4 finger",2,IF(I53="3 finger",3,IF(I53="2 finger",4,IF(I53="1 finger",5,IF(I53="pencil",6,IF(I53="knife",7,IF(I53="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="10">
+      <c r="O53" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="P53" s="10">
+      <c r="P53" s="10" t="n">
         <v>-0.5</v>
       </c>
       <c r="Q53" s="7"/>
-      <c r="R53" s="10">
+      <c r="R53" s="10" t="n">
         <v>36</v>
       </c>
-      <c r="S53" s="10">
+      <c r="S53" s="10" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A54" s="15">
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="15" t="n">
         <v>12</v>
       </c>
       <c r="D54" s="15" t="s">
@@ -1535,38 +1338,38 @@
         <v>24</v>
       </c>
       <c r="F54" s="15"/>
-      <c r="G54" s="15">
+      <c r="G54" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="15" t="n">
         <v>1</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I54="feast",1,IF(I54="4 finger",2,IF(I54="3 finger",3,IF(I54="2 finger",4,IF(I54="1 finger",5,IF(I54="pencil",6,IF(I54="knife",7,IF(I54="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="10">
+      <c r="O54" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="P54" s="10">
+      <c r="P54" s="10" t="n">
         <v>-0.6</v>
       </c>
       <c r="Q54" s="7"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A55" s="15">
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="15" t="n">
         <v>12</v>
       </c>
       <c r="C55" s="15"/>
@@ -1578,34 +1381,34 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I55="feast",1,IF(I55="4 finger",2,IF(I55="3 finger",3,IF(I55="2 finger",4,IF(I55="1 finger",5,IF(I55="pencil",6,IF(I55="knife",7,IF(I55="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="10">
+      <c r="O55" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P55" s="10" t="n">
         <v>0</v>
       </c>
       <c r="Q55" s="7"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A56" s="15">
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="15" t="n">
         <v>13.5</v>
       </c>
       <c r="D56" s="15" t="s">
@@ -1615,17 +1418,17 @@
         <v>24</v>
       </c>
       <c r="F56" s="15"/>
-      <c r="G56" s="15">
+      <c r="G56" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="15" t="n">
         <v>1</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I56="feast",1,IF(I56="4 finger",2,IF(I56="3 finger",3,IF(I56="2 finger",4,IF(I56="1 finger",5,IF(I56="pencil",6,IF(I56="knife",7,IF(I56="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K56" s="7"/>
@@ -1638,11 +1441,11 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A57" s="15">
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="15" t="n">
         <v>13.5</v>
       </c>
       <c r="C57" s="15"/>
@@ -1654,10 +1457,10 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I57="feast",1,IF(I57="4 finger",2,IF(I57="3 finger",3,IF(I57="2 finger",4,IF(I57="1 finger",5,IF(I57="pencil",6,IF(I57="knife",7,IF(I57="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K57" s="7"/>
@@ -1670,14 +1473,14 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A58" s="15">
+    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="15" t="n">
         <v>13.5</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="15" t="n">
         <v>15</v>
       </c>
       <c r="D58" s="15" t="s">
@@ -1687,17 +1490,17 @@
         <v>24</v>
       </c>
       <c r="F58" s="15"/>
-      <c r="G58" s="15">
+      <c r="G58" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="15" t="n">
         <v>1</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I58="feast",1,IF(I58="4 finger",2,IF(I58="3 finger",3,IF(I58="2 finger",4,IF(I58="1 finger",5,IF(I58="pencil",6,IF(I58="knife",7,IF(I58="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K58" s="7"/>
@@ -1710,11 +1513,11 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A59" s="15">
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="15" t="n">
         <v>15</v>
       </c>
       <c r="C59" s="15"/>
@@ -1726,10 +1529,10 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I59="feast",1,IF(I59="4 finger",2,IF(I59="3 finger",3,IF(I59="2 finger",4,IF(I59="1 finger",5,IF(I59="pencil",6,IF(I59="knife",7,IF(I59="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="K59" s="7"/>
@@ -1742,14 +1545,14 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A60" s="15">
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="15" t="n">
         <v>16.5</v>
       </c>
       <c r="D60" s="15" t="s">
@@ -1759,26 +1562,26 @@
         <v>24</v>
       </c>
       <c r="F60" s="15"/>
-      <c r="G60" s="15">
+      <c r="G60" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="15" t="n">
         <v>1</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I60="feast",1,IF(I60="4 finger",2,IF(I60="3 finger",3,IF(I60="2 finger",4,IF(I60="1 finger",5,IF(I60="pencil",6,IF(I60="knife",7,IF(I60="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A61" s="15">
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="15" t="n">
         <v>16.5</v>
       </c>
       <c r="C61" s="15"/>
@@ -1788,25 +1591,25 @@
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="15">
+      <c r="H61" s="15" t="n">
         <v>4</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A62" s="15">
+        <f aca="false">IF(I61="feast",1,IF(I61="4 finger",2,IF(I61="3 finger",3,IF(I61="2 finger",4,IF(I61="1 finger",5,IF(I61="pencil",6,IF(I61="knife",7,IF(I61="nan","NaN","NaN"))))))))</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="15" t="n">
         <v>16.5</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="15" t="n">
         <v>18</v>
       </c>
       <c r="D62" s="15" t="s">
@@ -1816,25 +1619,25 @@
         <v>24</v>
       </c>
       <c r="F62" s="15"/>
-      <c r="G62" s="15">
+      <c r="G62" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="15" t="n">
         <v>0.5</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A63" s="15">
+        <f aca="false">IF(I62="feast",1,IF(I62="4 finger",2,IF(I62="3 finger",3,IF(I62="2 finger",4,IF(I62="1 finger",5,IF(I62="pencil",6,IF(I62="knife",7,IF(I62="nan","NaN","NaN"))))))))</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="15" t="n">
         <v>18</v>
       </c>
       <c r="C63" s="15"/>
@@ -1843,28 +1646,28 @@
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="15">
+      <c r="G63" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="15" t="n">
         <v>4</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A64" s="15">
+        <f aca="false">IF(I63="feast",1,IF(I63="4 finger",2,IF(I63="3 finger",3,IF(I63="2 finger",4,IF(I63="1 finger",5,IF(I63="pencil",6,IF(I63="knife",7,IF(I63="nan","NaN","NaN"))))))))</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="n">
         <v>19</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="15" t="n">
         <v>22</v>
       </c>
       <c r="D64" s="15" t="s">
@@ -1874,86 +1677,86 @@
         <v>24</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="15">
+      <c r="G64" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="15" t="n">
         <v>0.5</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J64" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="15">
+        <f aca="false">IF(I64="feast",1,IF(I64="4 finger",2,IF(I64="3 finger",3,IF(I64="2 finger",4,IF(I64="1 finger",5,IF(I64="pencil",6,IF(I64="knife",7,IF(I64="nan","NaN","NaN"))))))))</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="15" t="n">
         <v>27</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
-      <c r="G65" s="15">
+      <c r="G65" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="15" t="n">
         <v>1</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J65" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="15">
+        <f aca="false">IF(I65="feast",1,IF(I65="4 finger",2,IF(I65="3 finger",3,IF(I65="2 finger",4,IF(I65="1 finger",5,IF(I65="pencil",6,IF(I65="knife",7,IF(I65="nan","NaN","NaN"))))))))</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="15" t="n">
         <v>27</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="15" t="n">
         <v>38</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
-      <c r="G66" s="15">
+      <c r="G66" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="15" t="n">
         <v>4</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J66" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>NaN</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="15">
+        <f aca="false">IF(I66="feast",1,IF(I66="4 finger",2,IF(I66="3 finger",3,IF(I66="2 finger",4,IF(I66="1 finger",5,IF(I66="pencil",6,IF(I66="knife",7,IF(I66="nan","NaN","NaN"))))))))</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="15" t="n">
         <v>39</v>
       </c>
       <c r="D67" s="15" t="s">
@@ -1964,17 +1767,18 @@
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J67" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IF(I67="feast",1,IF(I67="4 finger",2,IF(I67="3 finger",3,IF(I67="2 finger",4,IF(I67="1 finger",5,IF(I67="pencil",6,IF(I67="knife",7,IF(I67="nan","NaN","NaN"))))))))</f>
         <v>NaN</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
